--- a/recebimentos.xlsx
+++ b/recebimentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasricardodecastrosilva/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasricardodecastrosilva/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB81833-0A61-F44E-BCCD-905913399504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1B43AA-2C1F-4E4D-9FDC-9AF91C4A684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +402,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -422,7 +425,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>45770.806770833333</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>1492.5</v>
+      </c>
+      <c r="D2">
+        <v>399.5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
